--- a/src/main/resources/com/example/data/Room.xlsx
+++ b/src/main/resources/com/example/data/Room.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Mường Thanh</t>
   </si>
@@ -22,10 +22,10 @@
     <t>Sầm Sơn - Thanh Hóa</t>
   </si>
   <si>
-    <t>3 / 5</t>
-  </si>
-  <si>
-    <t>1205</t>
+    <t>5/5</t>
+  </si>
+  <si>
+    <t>101</t>
   </si>
   <si>
     <t>Single</t>
@@ -35,17 +35,101 @@
   </si>
   <si>
     <t>yes</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>208</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>503</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>2022-05-05T00:00</t>
+  </si>
+  <si>
+    <t>1109</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>Flamingo Đại Lải</t>
+  </si>
+  <si>
+    <t>Đại Lải - Vĩnh Phúc</t>
+  </si>
+  <si>
+    <t>401</t>
+  </si>
+  <si>
+    <t>1240000</t>
+  </si>
+  <si>
+    <t>402</t>
+  </si>
+  <si>
+    <t>902</t>
+  </si>
+  <si>
+    <t>404</t>
+  </si>
+  <si>
+    <t>1102</t>
+  </si>
+  <si>
+    <t>406</t>
+  </si>
+  <si>
+    <t>407</t>
+  </si>
+  <si>
+    <t>506</t>
+  </si>
+  <si>
+    <t>409</t>
+  </si>
+  <si>
+    <t>410</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="d/m"/>
+  </numFmts>
+  <fonts count="2">
     <font>
       <name val="Arial"/>
       <color rgb="FF000000"/>
       <sz val="10"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -69,8 +153,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment vertical="bottom" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="true"/>
@@ -283,32 +372,495 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="60" zoomScale="100" view="normal"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" customHeight="1" defaultColWidth="12.62890625"/>
+  <cols>
+    <col min="2" max="2" width="29.25" customWidth="1" style="1"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G21" s="2" t="s">
         <v>6</v>
       </c>
     </row>

--- a/src/main/resources/com/example/data/Room.xlsx
+++ b/src/main/resources/com/example/data/Room.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Mường Thanh</t>
   </si>
@@ -62,9 +62,6 @@
   </si>
   <si>
     <t>109</t>
-  </si>
-  <si>
-    <t>2022-05-05T00:00</t>
   </si>
   <si>
     <t>1109</t>
@@ -539,7 +536,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -596,11 +593,11 @@
         <v>1</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="E10" s="2" t="s">
         <v>4</v>
       </c>
@@ -608,7 +605,7 @@
         <v>5</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -619,10 +616,10 @@
         <v>1</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>4</v>
@@ -636,68 +633,68 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="E12" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>6</v>
@@ -705,22 +702,22 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>6</v>
@@ -728,45 +725,45 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>6</v>
@@ -774,22 +771,22 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>6</v>
@@ -797,45 +794,45 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>6</v>
@@ -843,22 +840,22 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>6</v>

--- a/src/main/resources/com/example/data/Room.xlsx
+++ b/src/main/resources/com/example/data/Room.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>Mường Thanh</t>
   </si>
@@ -107,6 +107,57 @@
   </si>
   <si>
     <t>410</t>
+  </si>
+  <si>
+    <t>Sóng Thần</t>
+  </si>
+  <si>
+    <t>Hạ Long - Quảng Ninh</t>
+  </si>
+  <si>
+    <t>9002</t>
+  </si>
+  <si>
+    <t>single</t>
+  </si>
+  <si>
+    <t>1460000</t>
+  </si>
+  <si>
+    <t>9004</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>1820000</t>
+  </si>
+  <si>
+    <t>Phong Nha</t>
+  </si>
+  <si>
+    <t>Quảng Bình</t>
+  </si>
+  <si>
+    <t>3/5</t>
+  </si>
+  <si>
+    <t>9101</t>
+  </si>
+  <si>
+    <t>800000</t>
+  </si>
+  <si>
+    <t>Bà Nà Resort</t>
+  </si>
+  <si>
+    <t>Hòa Vang - Đà Nẵng</t>
+  </si>
+  <si>
+    <t>9201</t>
+  </si>
+  <si>
+    <t>2240000</t>
   </si>
 </sst>
 </file>
@@ -369,7 +420,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="60" zoomScale="100" view="normal"/>
   </sheetViews>
@@ -861,6 +912,98 @@
         <v>6</v>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" t="s">
+        <v>34</v>
+      </c>
+      <c r="F22" t="s">
+        <v>35</v>
+      </c>
+      <c r="G22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" t="s">
+        <v>37</v>
+      </c>
+      <c r="F23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" t="s">
+        <v>42</v>
+      </c>
+      <c r="E24" t="s">
+        <v>37</v>
+      </c>
+      <c r="F24" t="s">
+        <v>43</v>
+      </c>
+      <c r="G24" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" t="s">
+        <v>46</v>
+      </c>
+      <c r="E25" t="s">
+        <v>37</v>
+      </c>
+      <c r="F25" t="s">
+        <v>47</v>
+      </c>
+      <c r="G25" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" scale="100" paperSize="9" fitToWidth="0" fitToHeight="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
